--- a/2016elections/20161025-pollster/builds/development/data/maindata.xlsx
+++ b/2016elections/20161025-pollster/builds/development/data/maindata.xlsx
@@ -4,13 +4,14 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26330"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="18380" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="18380" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="polls" sheetId="1" r:id="rId1"/>
     <sheet name="source" sheetId="2" r:id="rId2"/>
+    <sheet name="layout" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="131">
   <si>
     <t>index</t>
   </si>
@@ -362,19 +363,69 @@
   </si>
   <si>
     <t>Star Tribune analysis of polling data</t>
+  </si>
+  <si>
+    <t>Poll entry index number</t>
+  </si>
+  <si>
+    <t>Which organization conducted the poll</t>
+  </si>
+  <si>
+    <t>Start date of the survey</t>
+  </si>
+  <si>
+    <t>End date of the survey</t>
+  </si>
+  <si>
+    <t>When the poll was published</t>
+  </si>
+  <si>
+    <t>Number of people included in the poll</t>
+  </si>
+  <si>
+    <t>How the poll was populated (LV, RV)</t>
+  </si>
+  <si>
+    <t>How the poll was conducted (Robodial, Live Phone, Internet)</t>
+  </si>
+  <si>
+    <t>Percent of those surveyed supporting Clinton</t>
+  </si>
+  <si>
+    <t>Percent of those surveyed supporting Trump</t>
+  </si>
+  <si>
+    <t>Percent of those surveyed who are undecided</t>
+  </si>
+  <si>
+    <t>Percent of those surveyed supporting another candidate</t>
+  </si>
+  <si>
+    <t>Percent difference between leading candidates</t>
+  </si>
+  <si>
+    <t>Polling organization URL</t>
+  </si>
+  <si>
+    <t>Poll URL</t>
+  </si>
+  <si>
+    <t>Is the poll partisan? (Pollster, Nonpartisan)</t>
+  </si>
+  <si>
+    <t>Party affiliation, if any</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="136"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -384,6 +435,22 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -404,15 +471,23 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="5">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -744,7 +819,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q49"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N3" sqref="N3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
@@ -3341,6 +3418,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -3353,7 +3431,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
@@ -3402,4 +3480,166 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:B19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="2" spans="1:2">
+      <c r="A2" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>15</v>
+      </c>
+      <c r="B18" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19" t="s">
+        <v>130</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>